--- a/data/trans_dic/Q23_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/Q23_R2-Estudios-trans_dic.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>43,42; 51,84</t>
+          <t>43,45; 51,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>42,39; 49,84</t>
+          <t>42,29; 49,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>21,24; 33,27</t>
+          <t>20,59; 32,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>25,86; 37,9</t>
+          <t>25,4; 38,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>38,9; 45,66</t>
+          <t>38,92; 45,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>39,26; 46,04</t>
+          <t>38,86; 45,02</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>29,43; 35,57</t>
+          <t>29,86; 36,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>31,35; 37,28</t>
+          <t>31,37; 36,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,22; 33,28</t>
+          <t>26,59; 33,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26,27; 32,6</t>
+          <t>25,93; 32,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,35; 34,09</t>
+          <t>29,11; 33,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,1; 34,27</t>
+          <t>29,76; 34,2</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,85; 23,99</t>
+          <t>13,93; 24,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,97; 26,77</t>
+          <t>14,95; 27,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,51; 22,78</t>
+          <t>12,08; 23,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,26; 26,31</t>
+          <t>13,62; 25,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,34; 21,91</t>
+          <t>14,12; 21,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,1; 24,25</t>
+          <t>15,65; 24,16</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>33,59; 38,04</t>
+          <t>33,64; 38,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>34,25; 38,61</t>
+          <t>34,48; 38,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,43; 29,69</t>
+          <t>24,04; 29,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,69; 30,82</t>
+          <t>25,66; 30,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,92; 34,28</t>
+          <t>30,79; 34,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,72; 34,95</t>
+          <t>31,68; 35,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Q23_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/Q23_R2-Estudios-trans_dic.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>43,45; 51,4</t>
+          <t>43,27; 51,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>42,29; 49,99</t>
+          <t>42,39; 50,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,59; 32,97</t>
+          <t>21,25; 33,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>25,4; 38,03</t>
+          <t>26,41; 38,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>38,92; 45,71</t>
+          <t>38,61; 45,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>38,86; 45,02</t>
+          <t>39,19; 45,61</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>29,86; 36,07</t>
+          <t>29,56; 36,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>31,37; 36,99</t>
+          <t>31,63; 37,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,59; 33,39</t>
+          <t>26,33; 33,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,93; 32,52</t>
+          <t>26,32; 32,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,11; 33,79</t>
+          <t>29,27; 34,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,76; 34,2</t>
+          <t>30,0; 34,25</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,93; 24,55</t>
+          <t>13,4; 23,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,95; 27,26</t>
+          <t>15,15; 26,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,08; 23,31</t>
+          <t>12,22; 23,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,62; 25,73</t>
+          <t>13,49; 26,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,12; 21,95</t>
+          <t>14,4; 22,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,65; 24,16</t>
+          <t>15,92; 24,08</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>33,64; 38,21</t>
+          <t>33,77; 38,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>34,48; 38,54</t>
+          <t>34,29; 38,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,04; 29,91</t>
+          <t>24,45; 30,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,66; 30,92</t>
+          <t>25,64; 30,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,79; 34,48</t>
+          <t>30,89; 34,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,68; 35,11</t>
+          <t>31,66; 35,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Q23_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/Q23_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>43,27; 51,52</t>
+          <t>43,42; 51,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>42,39; 50,32</t>
+          <t>42,39; 49,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>21,25; 33,09</t>
+          <t>21,24; 33,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>26,41; 38,18</t>
+          <t>25,86; 37,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>38,61; 45,64</t>
+          <t>38,9; 45,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>39,19; 45,61</t>
+          <t>39,26; 46,04</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>29,56; 36,09</t>
+          <t>29,43; 35,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>31,63; 37,32</t>
+          <t>31,35; 37,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,33; 33,51</t>
+          <t>26,22; 33,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26,32; 32,71</t>
+          <t>26,27; 32,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,27; 34,21</t>
+          <t>29,35; 34,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,0; 34,25</t>
+          <t>30,1; 34,27</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,4; 23,74</t>
+          <t>13,85; 23,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,15; 26,06</t>
+          <t>14,97; 26,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,22; 23,5</t>
+          <t>11,51; 22,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,49; 26,52</t>
+          <t>14,26; 26,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,4; 22,14</t>
+          <t>14,34; 21,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,92; 24,08</t>
+          <t>16,1; 24,25</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>33,77; 38,18</t>
+          <t>33,59; 38,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>34,29; 38,68</t>
+          <t>34,25; 38,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,45; 30,05</t>
+          <t>24,43; 29,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,64; 30,75</t>
+          <t>25,69; 30,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,89; 34,29</t>
+          <t>30,92; 34,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,66; 35,09</t>
+          <t>31,72; 34,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Q23_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/Q23_R2-Estudios-trans_dic.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,12 +523,18 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra en el primer cuartil de la edad de comienzo de consumo de tabaco</t>
+          <t>Población cuyo comienzo de consumo de tabaco fue antes de los 15 años</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -611,22 +666,52 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>58,26%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>53,7%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>26,9%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>31,95%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>71,55%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>27,36%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>42,23%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>42,14%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>60,52%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>46,32%</t>
         </is>
       </c>
     </row>
@@ -649,22 +734,52 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>41,39; 73,12</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>48,0; 58,75</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>21,24; 33,27</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>25,86; 37,9</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>32,92; 100,0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>21,13; 34,84</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>38,9; 45,66</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>39,26; 46,04</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>47,38; 73,93</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>41,92; 50,83</t>
         </is>
       </c>
     </row>
@@ -691,22 +806,52 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>53,2%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>24,61%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>29,86%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>29,27%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>45,77%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>24,55%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>31,54%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="L6" s="2" t="inlineStr">
         <is>
           <t>32,16%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>51,31%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>24,59%</t>
         </is>
       </c>
     </row>
@@ -729,22 +874,52 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>44,12; 61,91</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>12,15; 32,63</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>26,22; 33,28</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>26,27; 32,6</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>30,71; 62,17</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>21,64; 27,78</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>29,35; 34,09</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="L7" s="2" t="inlineStr">
         <is>
           <t>30,1; 34,27</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>43,51; 58,96</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>16,41; 29,55</t>
         </is>
       </c>
     </row>
@@ -771,22 +946,52 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>30,64%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>20,19%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>17,09%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>19,23%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>34,06%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>20,99%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>17,98%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="L8" s="2" t="inlineStr">
         <is>
           <t>19,76%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>32,0%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>20,55%</t>
         </is>
       </c>
     </row>
@@ -809,22 +1014,52 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>14,03; 51,69</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>15,42; 25,72</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>11,51; 22,78</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>14,26; 26,31</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>14,99; 62,53</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>16,43; 26,43</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
         <is>
           <t>14,34; 21,91</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>16,1; 24,25</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>20,05; 48,44</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>17,15; 24,59</t>
         </is>
       </c>
     </row>
@@ -851,22 +1086,52 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>50,85%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>29,24%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>27,03%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>28,24%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>45,56%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>24,18%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>32,63%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="L10" s="2" t="inlineStr">
         <is>
           <t>33,32%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>49,45%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>27,38%</t>
         </is>
       </c>
     </row>
@@ -889,22 +1154,52 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>43,45; 58,17</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>17,36; 35,4</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
           <t>24,43; 29,69</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>25,69; 30,82</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>34,64; 57,98</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>21,93; 27,13</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
         <is>
           <t>30,92; 34,28</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="L11" s="2" t="inlineStr">
         <is>
           <t>31,72; 34,95</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>43,04; 55,52</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>17,77; 30,7</t>
         </is>
       </c>
     </row>
@@ -918,13 +1213,13 @@
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/Q23_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/Q23_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -666,7 +667,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>58,26%</t>
+          <t>45,31%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -686,7 +687,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>71,55%</t>
+          <t>33,46%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -706,7 +707,7 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>60,52%</t>
+          <t>41,9%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>43,42; 51,84</t>
+          <t>43,43; 51,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>42,39; 49,84</t>
+          <t>42,22; 49,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>41,39; 73,12</t>
+          <t>40,95; 50,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>48,0; 58,75</t>
+          <t>48,35; 59,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,24; 33,27</t>
+          <t>21,33; 33,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,86; 37,9</t>
+          <t>26,19; 38,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>32,92; 100,0</t>
+          <t>26,22; 41,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>21,13; 34,84</t>
+          <t>21,33; 34,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>38,9; 45,66</t>
+          <t>39,21; 45,9</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>39,26; 46,04</t>
+          <t>39,02; 45,69</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>47,38; 73,93</t>
+          <t>38,27; 46,11</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>41,92; 50,83</t>
+          <t>42,17; 50,7</t>
         </is>
       </c>
     </row>
@@ -806,7 +807,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>53,2%</t>
+          <t>35,24%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -826,7 +827,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>45,77%</t>
+          <t>25,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -846,7 +847,7 @@
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>51,31%</t>
+          <t>30,89%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>29,43; 35,57</t>
+          <t>29,92; 35,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>31,35; 37,28</t>
+          <t>31,44; 37,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>44,12; 61,91</t>
+          <t>32,07; 38,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,15; 32,63</t>
+          <t>13,16; 32,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,22; 33,28</t>
+          <t>26,58; 33,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,27; 32,6</t>
+          <t>26,19; 32,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>30,71; 62,17</t>
+          <t>22,56; 28,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,64; 27,78</t>
+          <t>21,41; 27,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,35; 34,09</t>
+          <t>29,25; 33,83</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>30,1; 34,27</t>
+          <t>30,0; 34,18</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>43,51; 58,96</t>
+          <t>28,87; 32,87</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,41; 29,55</t>
+          <t>15,05; 29,09</t>
         </is>
       </c>
     </row>
@@ -946,7 +947,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>30,64%</t>
+          <t>24,19%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -966,7 +967,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>34,06%</t>
+          <t>22,84%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -986,7 +987,7 @@
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>32,0%</t>
+          <t>23,52%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,85; 23,99</t>
+          <t>14,05; 24,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,97; 26,77</t>
+          <t>15,5; 26,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,03; 51,69</t>
+          <t>17,89; 30,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,42; 25,72</t>
+          <t>15,49; 25,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,51; 22,78</t>
+          <t>11,83; 23,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,26; 26,31</t>
+          <t>13,09; 25,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,99; 62,53</t>
+          <t>16,72; 28,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,43; 26,43</t>
+          <t>16,38; 26,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,34; 21,91</t>
+          <t>14,43; 22,0</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,1; 24,25</t>
+          <t>16,1; 24,42</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>20,05; 48,44</t>
+          <t>19,32; 27,69</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,15; 24,59</t>
+          <t>16,75; 24,38</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>50,85%</t>
+          <t>36,3%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -1106,7 +1107,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>45,56%</t>
+          <t>25,96%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1126,7 +1127,7 @@
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>49,45%</t>
+          <t>32,02%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>33,59; 38,04</t>
+          <t>33,5; 38,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>34,25; 38,61</t>
+          <t>34,3; 38,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>43,45; 58,17</t>
+          <t>33,83; 38,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,36; 35,4</t>
+          <t>17,9; 35,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,43; 29,69</t>
+          <t>24,42; 30,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,69; 30,82</t>
+          <t>25,76; 30,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,64; 57,98</t>
+          <t>23,55; 28,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,93; 27,13</t>
+          <t>21,84; 26,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>30,92; 34,28</t>
+          <t>30,78; 34,39</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>31,72; 34,95</t>
+          <t>31,64; 34,91</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>43,04; 55,52</t>
+          <t>30,01; 33,7</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,77; 30,7</t>
+          <t>19,55; 30,87</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo comienzo de consumo de tabaco fue antes de los 15 años</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>289819</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>320933</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>193821</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>161593</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>57565</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>85077</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>57901</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>32050</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>347385</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>406010</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>251721</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>193643</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>264352; 314482</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>294332; 346678</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>175173; 216402</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>145477; 177608</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>45649; 71354</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>69747; 102257</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>45366; 71132</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>24988; 40416</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>322581; 377620</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>375952; 440210</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>229916; 277018</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>176280; 211955</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>491</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>306774</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>403912</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>389913</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>277869</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>190123</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>251332</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>214042</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>161820</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>496896</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>655244</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>603955</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>439688</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>280950; 335732</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>370572; 437549</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>354821; 423072</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>148549; 365816</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>169207; 214861</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>224892; 280061</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>191457; 240068</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>141122; 182347</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>460925; 533048</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>611151; 696296</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>564346; 642595</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>269085; 520168</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>45086</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>49750</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>53400</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>47887</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>30548</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>40016</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>49453</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>40554</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>75634</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>89766</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>102853</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>88442</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>34011; 59319</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>38141; 66057</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>39494; 68159</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>36724; 59634</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>21143; 42779</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>27236; 52850</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>36192; 62588</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>31639; 52136</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>60700; 92543</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>73108; 110904</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>84483; 121087</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>72084; 104902</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>602</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>544</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>908</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1072</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>916</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>875</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>641678</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>774596</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>637134</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>487349</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>278236</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>376424</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>321395</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>234424</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>919915</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1151020</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>958529</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>721773</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>599485; 680836</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>727740; 819715</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>593785; 677417</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>298395; 583959</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>251338; 309212</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>343406; 410029</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>291594; 353450</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>211774; 257936</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>867773; 969376</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1093007; 1206053</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>898224; 1008663</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>515318; 813850</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>